--- a/数据整理/stocks/港股/00570-中国中药.xlsx
+++ b/数据整理/stocks/港股/00570-中国中药.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,635 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3073</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7847</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4083</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>970067</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>970068</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>970101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>970069</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>970100</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>970102</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.12</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00570-中国中药.xlsx
+++ b/数据整理/stocks/港股/00570-中国中药.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,205 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010387</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达医药生物股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7541</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.09</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006132</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家智造优势混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1846</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010388</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达医药生物股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.49</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1601</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006133</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家智造优势混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.70</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1286,64 +1146,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.09</v>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7541</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.12</v>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1846</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00570-中国中药.xlsx
+++ b/数据整理/stocks/港股/00570-中国中药.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3.09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.12</v>
       </c>
     </row>
@@ -515,6 +532,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1140,7 +1289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00570-中国中药.xlsx
+++ b/数据整理/stocks/港股/00570-中国中药.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3.09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.12</v>
       </c>
     </row>
@@ -532,6 +549,402 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>53.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>53.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016181</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -663,7 +1076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1289,7 +1702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
